--- a/xlsx/nor_oda_ngo_tenyear.xlsx
+++ b/xlsx/nor_oda_ngo_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand til sivilsamfunnspartnere, 2014-2023. Målt i utbetalinger (NOK mrd.) og prosent av total bistand.</t>
+          <t>Arkfane Figurdata viser data for Bistand til sivilsamfunnspartnere, 2015-2024. Målt i utbetalinger (NOK mrd.) og prosent av total bistand.</t>
         </is>
       </c>
     </row>
@@ -404,112 +404,112 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2">
-        <v>7.02840712225</v>
+        <v>7.13847320579</v>
       </c>
       <c r="C2">
-        <v>0.2193244273546567</v>
+        <v>0.2070179564881059</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3">
-        <v>7.13847320579</v>
+        <v>6.98275550679</v>
       </c>
       <c r="C3">
-        <v>0.2070179564881059</v>
+        <v>0.1898212425226944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4">
-        <v>6.98275550679</v>
+        <v>7.35346611547</v>
       </c>
       <c r="C4">
-        <v>0.1898212425226944</v>
+        <v>0.2155624075840105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5">
-        <v>7.35346611547</v>
+        <v>7.49438692976</v>
       </c>
       <c r="C5">
-        <v>0.2155624075840105</v>
+        <v>0.2164013804355653</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6">
-        <v>7.49438692976</v>
+        <v>8.48078048799</v>
       </c>
       <c r="C6">
-        <v>0.2164013804355653</v>
+        <v>0.2242961751551422</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7">
-        <v>8.48078048799</v>
+        <v>8.5891619622</v>
       </c>
       <c r="C7">
-        <v>0.2242961751551422</v>
+        <v>0.2174756111006437</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8">
-        <v>8.9770064762</v>
+        <v>8.753035863559999</v>
       </c>
       <c r="C8">
-        <v>0.2272957452493981</v>
+        <v>0.2180201191382811</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9">
-        <v>9.116291113560001</v>
+        <v>9.924348182619999</v>
       </c>
       <c r="C9">
-        <v>0.2270680602317608</v>
+        <v>0.2000392769397611</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B10">
-        <v>10.2772189859</v>
+        <v>12.45553773864</v>
       </c>
       <c r="C10">
-        <v>0.2071518871628588</v>
+        <v>0.2126105247419269</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B11">
-        <v>13.17051050944</v>
+        <v>11.27900405393</v>
       </c>
       <c r="C11">
-        <v>0.2248147939726647</v>
+        <v>0.2025470684699082</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_ngo_tenyear.xlsx
+++ b/xlsx/nor_oda_ngo_tenyear.xlsx
@@ -462,10 +462,10 @@
         <v>2020</v>
       </c>
       <c r="B7">
-        <v>8.5891619622</v>
+        <v>8.9770064762</v>
       </c>
       <c r="C7">
-        <v>0.2174756111006437</v>
+        <v>0.2272957452493981</v>
       </c>
     </row>
     <row r="8">
@@ -473,10 +473,10 @@
         <v>2021</v>
       </c>
       <c r="B8">
-        <v>8.753035863559999</v>
+        <v>9.116291113560001</v>
       </c>
       <c r="C8">
-        <v>0.2180201191382811</v>
+        <v>0.2270680602317608</v>
       </c>
     </row>
     <row r="9">
@@ -484,10 +484,10 @@
         <v>2022</v>
       </c>
       <c r="B9">
-        <v>9.924348182619999</v>
+        <v>10.2802189859</v>
       </c>
       <c r="C9">
-        <v>0.2000392769397611</v>
+        <v>0.2072123564067604</v>
       </c>
     </row>
     <row r="10">
@@ -495,10 +495,10 @@
         <v>2023</v>
       </c>
       <c r="B10">
-        <v>12.45553773864</v>
+        <v>13.15451050944</v>
       </c>
       <c r="C10">
-        <v>0.2126105247419269</v>
+        <v>0.2245416810435201</v>
       </c>
     </row>
     <row r="11">
@@ -506,10 +506,10 @@
         <v>2024</v>
       </c>
       <c r="B11">
-        <v>11.27900405393</v>
+        <v>11.77526762493</v>
       </c>
       <c r="C11">
-        <v>0.2025470684699082</v>
+        <v>0.2114589130808191</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_ngo_tenyear.xlsx
+++ b/xlsx/nor_oda_ngo_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Bistand til sivilsamfunnspartnere, 2015-2024. Målt i utbetalinger (NOK mrd.) og prosent av total bistand.</t>
+          <t>Arkfane Figurdata inneholder data om norsk bistand til sivilsamfunnspartnere. 2015-2024. Målt i utbetalinger (NOK mrd.) og prosent av total bistand.</t>
         </is>
       </c>
     </row>
